--- a/BD_Rutas_Junio.xlsx
+++ b/BD_Rutas_Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fedbacks H1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0970AF69-9045-45B2-A308-041B4CED7B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B32D7-73A4-46DF-8AD3-CE9EFEE393B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,46 +678,46 @@
     <t>JUAN SIBRIAN</t>
   </si>
   <si>
-    <t>ARNOLDO SANCHEZ CARBALLO</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO MARROQUIN SANCHEZ</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO MUNGUIA</t>
-  </si>
-  <si>
-    <t>FLAVIO ANTONIO LAGUAN MARTINEZ</t>
-  </si>
-  <si>
     <t>ILC</t>
   </si>
   <si>
-    <t>JUAN ANTONIO FERNANDEZ ALVARADO</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS FLORES GARCIA</t>
-  </si>
-  <si>
-    <t>PAE EL SALVADOR</t>
-  </si>
-  <si>
-    <t>PEDRO VASQUEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>VELARMINO MEJIA GARCIA</t>
-  </si>
-  <si>
     <t>ROSA MIRIAM CUELLAR</t>
   </si>
   <si>
-    <t>LUIS ERNESTO CAMPOS BARAHONA</t>
-  </si>
-  <si>
-    <t>OSCAR EDGARDO RAMIREZ</t>
-  </si>
-  <si>
     <t>GC</t>
+  </si>
+  <si>
+    <t>ARNOLDO CARBALLO</t>
+  </si>
+  <si>
+    <t>CARLOS MARROQUIN</t>
+  </si>
+  <si>
+    <t>CARLOS MUNGUIA</t>
+  </si>
+  <si>
+    <t>FLAVIO LAGUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN FERNANDEZ </t>
+  </si>
+  <si>
+    <t>JUAN FLORES</t>
+  </si>
+  <si>
+    <t>LUIS CAMPOS</t>
+  </si>
+  <si>
+    <t>OSCAR RAMIREZ</t>
+  </si>
+  <si>
+    <t>PEDRO VASQUEZ</t>
+  </si>
+  <si>
+    <t>VELARMINO MEJIA</t>
+  </si>
+  <si>
+    <t>PAE</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="E76" sqref="E60:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,10 +1112,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1129,10 +1129,10 @@
         <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1146,10 +1146,10 @@
         <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1163,10 +1163,10 @@
         <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1180,10 +1180,10 @@
         <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1197,10 +1197,10 @@
         <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1214,10 +1214,10 @@
         <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1231,10 +1231,10 @@
         <v>216</v>
       </c>
       <c r="E9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1248,10 +1248,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1265,10 +1265,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1282,10 +1282,10 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1299,10 +1299,10 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1316,10 +1316,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1333,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1350,10 +1350,10 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1367,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1384,10 +1384,10 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1401,10 +1401,10 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1418,10 +1418,10 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1435,10 +1435,10 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1452,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1469,10 +1469,10 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1486,10 +1486,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1503,10 +1503,10 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1520,10 +1520,10 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F26" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1537,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1554,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1571,10 +1571,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1588,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1605,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1622,10 +1622,10 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1639,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1656,10 +1656,10 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F34" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1673,10 +1673,10 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F35" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1690,10 +1690,10 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1707,10 +1707,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1724,10 +1724,10 @@
         <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1741,10 +1741,10 @@
         <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1758,10 +1758,10 @@
         <v>216</v>
       </c>
       <c r="E40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F40" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1775,10 +1775,10 @@
         <v>216</v>
       </c>
       <c r="E41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1792,10 +1792,10 @@
         <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F42" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1809,10 +1809,10 @@
         <v>216</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1826,10 +1826,10 @@
         <v>216</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1843,10 +1843,10 @@
         <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1860,10 +1860,10 @@
         <v>216</v>
       </c>
       <c r="E46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1877,10 +1877,10 @@
         <v>216</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1894,10 +1894,10 @@
         <v>216</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F48" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1911,10 +1911,10 @@
         <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F49" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1928,10 +1928,10 @@
         <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F50" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1945,10 +1945,10 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1962,10 +1962,10 @@
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1979,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1996,10 +1996,10 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2013,10 +2013,10 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F55" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2030,10 +2030,10 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -2047,10 +2047,10 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F57" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2064,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2081,10 +2081,10 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2098,10 +2098,10 @@
         <v>216</v>
       </c>
       <c r="E60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2115,10 +2115,10 @@
         <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F61" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2132,10 +2132,10 @@
         <v>216</v>
       </c>
       <c r="E62" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F62" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2149,7 +2149,7 @@
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
@@ -2166,7 +2166,7 @@
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
@@ -2183,7 +2183,7 @@
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
@@ -2217,7 +2217,7 @@
         <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
@@ -2234,7 +2234,7 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F68" t="s">
         <v>30</v>
@@ -2251,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
@@ -2268,7 +2268,7 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
@@ -2285,7 +2285,7 @@
         <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
@@ -2302,7 +2302,7 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
@@ -2319,7 +2319,7 @@
         <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -2336,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
         <v>30</v>
@@ -2353,7 +2353,7 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F75" t="s">
         <v>30</v>
@@ -2370,7 +2370,7 @@
         <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
@@ -2387,10 +2387,10 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2404,10 +2404,10 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2421,10 +2421,10 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F79" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2438,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2455,10 +2455,10 @@
         <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2472,10 +2472,10 @@
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2489,10 +2489,10 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2506,10 +2506,10 @@
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2523,10 +2523,10 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2540,10 +2540,10 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F86" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2557,10 +2557,10 @@
         <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2574,10 +2574,10 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2591,10 +2591,10 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F89" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2608,10 +2608,10 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2625,10 +2625,10 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F91" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2642,10 +2642,10 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2659,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F93" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2676,10 +2676,10 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F94" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2693,10 +2693,10 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F95" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2710,10 +2710,10 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F96" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2727,10 +2727,10 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F97" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -2744,10 +2744,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F98" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2761,10 +2761,10 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F99" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2778,10 +2778,10 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2795,10 +2795,10 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F101" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2812,10 +2812,10 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F102" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2829,10 +2829,10 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F103" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2846,10 +2846,10 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F104" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2863,10 +2863,10 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F105" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/BD_Rutas_Junio.xlsx
+++ b/BD_Rutas_Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fedbacks H1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B32D7-73A4-46DF-8AD3-CE9EFEE393B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01D17D2-08B0-4C4C-BBA8-497355BE298D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,9 +675,6 @@
     <t>SV-0745</t>
   </si>
   <si>
-    <t>JUAN SIBRIAN</t>
-  </si>
-  <si>
     <t>ILC</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>PAE</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS SIBRIAN</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F77E348F-D8E6-4A65-830F-4E92A9C7A497}" name="Table2" displayName="Table2" ref="A1:F105" totalsRowShown="0">
-  <autoFilter ref="A1:F105" xr:uid="{F77E348F-D8E6-4A65-830F-4E92A9C7A497}"/>
+  <autoFilter ref="A1:F105" xr:uid="{F77E348F-D8E6-4A65-830F-4E92A9C7A497}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="JUAN SIBRIAN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2116987D-B611-43E6-A00A-B1AAB9A17787}" name="RUTA" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9B455927-9740-4DC5-818B-C0B4E45D2FFC}" name="CODIGO"/>
@@ -1068,7 +1074,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E60:E76"/>
+      <selection activeCell="D3" sqref="D3:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,10 +1118,10 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1126,13 +1132,13 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1143,13 +1149,13 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1160,13 +1166,13 @@
         <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1177,13 +1183,13 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1194,13 +1200,13 @@
         <v>212</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1211,13 +1217,13 @@
         <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1228,16 +1234,16 @@
         <v>#N/A</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>59</v>
       </c>
@@ -1248,13 +1254,13 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1265,13 +1271,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -1282,13 +1288,13 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -1299,13 +1305,13 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>118</v>
       </c>
@@ -1316,13 +1322,13 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -1333,13 +1339,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>154</v>
       </c>
@@ -1350,13 +1356,13 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>180</v>
       </c>
@@ -1367,13 +1373,13 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>182</v>
       </c>
@@ -1384,13 +1390,13 @@
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>201</v>
       </c>
@@ -1401,13 +1407,13 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1418,13 +1424,13 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1435,13 +1441,13 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -1452,13 +1458,13 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>188</v>
       </c>
@@ -1469,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>190</v>
       </c>
@@ -1486,13 +1492,13 @@
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -1503,13 +1509,13 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1520,13 +1526,13 @@
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1537,13 +1543,13 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
@@ -1554,13 +1560,13 @@
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1571,13 +1577,13 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
@@ -1588,13 +1594,13 @@
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>83</v>
       </c>
@@ -1605,13 +1611,13 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -1622,13 +1628,13 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>135</v>
       </c>
@@ -1639,13 +1645,13 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
@@ -1656,13 +1662,13 @@
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>157</v>
       </c>
@@ -1673,13 +1679,13 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
@@ -1690,13 +1696,13 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>203</v>
       </c>
@@ -1707,10 +1713,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1721,13 +1727,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" t="s">
         <v>216</v>
       </c>
-      <c r="E38" t="s">
-        <v>217</v>
-      </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1738,13 +1744,13 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" t="s">
         <v>216</v>
       </c>
-      <c r="E39" t="s">
-        <v>217</v>
-      </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1755,13 +1761,13 @@
         <v>40</v>
       </c>
       <c r="D40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E40" t="s">
         <v>216</v>
       </c>
-      <c r="E40" t="s">
-        <v>217</v>
-      </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1772,13 +1778,13 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
         <v>216</v>
       </c>
-      <c r="E41" t="s">
-        <v>217</v>
-      </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1789,13 +1795,13 @@
         <v>76</v>
       </c>
       <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
         <v>216</v>
       </c>
-      <c r="E42" t="s">
-        <v>217</v>
-      </c>
       <c r="F42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1806,13 +1812,13 @@
         <v>90</v>
       </c>
       <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
         <v>216</v>
       </c>
-      <c r="E43" t="s">
-        <v>217</v>
-      </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1823,13 +1829,13 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" t="s">
         <v>216</v>
       </c>
-      <c r="E44" t="s">
-        <v>217</v>
-      </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1840,13 +1846,13 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" t="s">
         <v>216</v>
       </c>
-      <c r="E45" t="s">
-        <v>217</v>
-      </c>
       <c r="F45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1857,13 +1863,13 @@
         <v>110</v>
       </c>
       <c r="D46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="E46" t="s">
-        <v>217</v>
-      </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1874,13 +1880,13 @@
         <v>128</v>
       </c>
       <c r="D47" t="s">
+        <v>230</v>
+      </c>
+      <c r="E47" t="s">
         <v>216</v>
       </c>
-      <c r="E47" t="s">
-        <v>217</v>
-      </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1891,13 +1897,13 @@
         <v>134</v>
       </c>
       <c r="D48" t="s">
+        <v>230</v>
+      </c>
+      <c r="E48" t="s">
         <v>216</v>
       </c>
-      <c r="E48" t="s">
-        <v>217</v>
-      </c>
       <c r="F48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1908,13 +1914,13 @@
         <v>138</v>
       </c>
       <c r="D49" t="s">
+        <v>230</v>
+      </c>
+      <c r="E49" t="s">
         <v>216</v>
       </c>
-      <c r="E49" t="s">
-        <v>217</v>
-      </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1925,16 +1931,16 @@
         <v>165</v>
       </c>
       <c r="D50" t="s">
+        <v>230</v>
+      </c>
+      <c r="E50" t="s">
         <v>216</v>
       </c>
-      <c r="E50" t="s">
-        <v>217</v>
-      </c>
       <c r="F50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -1945,13 +1951,13 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>113</v>
       </c>
@@ -1962,13 +1968,13 @@
         <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>152</v>
       </c>
@@ -1979,13 +1985,13 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
@@ -1996,13 +2002,13 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -2013,13 +2019,13 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2030,13 +2036,13 @@
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -2047,13 +2053,13 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>85</v>
       </c>
@@ -2064,13 +2070,13 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2081,10 +2087,10 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2095,13 +2101,13 @@
         <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2112,13 +2118,13 @@
         <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2129,16 +2135,16 @@
         <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
@@ -2149,13 +2155,13 @@
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -2166,13 +2172,13 @@
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>115</v>
       </c>
@@ -2183,13 +2189,13 @@
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F65" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
@@ -2200,13 +2206,13 @@
         <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>143</v>
       </c>
@@ -2217,13 +2223,13 @@
         <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F67" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -2234,13 +2240,13 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F68" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>176</v>
       </c>
@@ -2251,13 +2257,13 @@
         <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>186</v>
       </c>
@@ -2268,13 +2274,13 @@
         <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>192</v>
       </c>
@@ -2285,13 +2291,13 @@
         <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>194</v>
       </c>
@@ -2302,13 +2308,13 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>196</v>
       </c>
@@ -2319,13 +2325,13 @@
         <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>198</v>
       </c>
@@ -2336,13 +2342,13 @@
         <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>207</v>
       </c>
@@ -2353,13 +2359,13 @@
         <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F75" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>209</v>
       </c>
@@ -2370,13 +2376,13 @@
         <v>29</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F76" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -2387,13 +2393,13 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F77" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>53</v>
       </c>
@@ -2404,13 +2410,13 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,13 +2427,13 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
@@ -2438,13 +2444,13 @@
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>71</v>
       </c>
@@ -2455,13 +2461,13 @@
         <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -2472,13 +2478,13 @@
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>111</v>
       </c>
@@ -2489,13 +2495,13 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
@@ -2506,13 +2512,13 @@
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>139</v>
       </c>
@@ -2523,13 +2529,13 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>148</v>
       </c>
@@ -2540,13 +2546,13 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F86" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>166</v>
       </c>
@@ -2557,13 +2563,13 @@
         <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>21</v>
       </c>
@@ -2574,13 +2580,13 @@
         <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F88" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>25</v>
       </c>
@@ -2591,13 +2597,13 @@
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,13 +2614,13 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
@@ -2625,13 +2631,13 @@
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>61</v>
       </c>
@@ -2642,13 +2648,13 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,13 +2665,13 @@
         <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>107</v>
       </c>
@@ -2676,13 +2682,13 @@
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>141</v>
       </c>
@@ -2693,13 +2699,13 @@
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>145</v>
       </c>
@@ -2710,13 +2716,13 @@
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>146</v>
       </c>
@@ -2727,13 +2733,13 @@
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>156</v>
       </c>
@@ -2744,13 +2750,13 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>174</v>
       </c>
@@ -2761,13 +2767,13 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>175</v>
       </c>
@@ -2778,13 +2784,13 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -2795,13 +2801,13 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>159</v>
       </c>
@@ -2812,13 +2818,13 @@
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F102" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>162</v>
       </c>
@@ -2829,13 +2835,13 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F103" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
@@ -2846,13 +2852,13 @@
         <v>17</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F104" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>170</v>
       </c>
@@ -2863,10 +2869,10 @@
         <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
